--- a/LOGS/9c51083f-f1f2-4b35-8fb6-276215c9cdc8/main_page_service_output/main_pages.xlsx
+++ b/LOGS/9c51083f-f1f2-4b35-8fb6-276215c9cdc8/main_page_service_output/main_pages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="102">
   <si>
     <t>Particulars</t>
   </si>
@@ -171,6 +171,9 @@
     <t>16</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>assets</t>
   </si>
   <si>
@@ -249,10 +252,76 @@
     <t>3(a)</t>
   </si>
   <si>
-    <t>nan</t>
+    <t>Cash flows from operating activities</t>
+  </si>
+  <si>
+    <t>Receipts from customers</t>
+  </si>
+  <si>
+    <t>Payments to suppliers and employees</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Interest paid</t>
+  </si>
+  <si>
+    <t>Income tax paid</t>
+  </si>
+  <si>
+    <t>Net cash flows from operating activities</t>
+  </si>
+  <si>
+    <t>Cash flows used in investing activities</t>
+  </si>
+  <si>
+    <t>Purchase of property, plant and equipment and intangible assets</t>
+  </si>
+  <si>
+    <t>Proceeds from sale of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Acquisition of a subsidiary, net of cash acquired</t>
+  </si>
+  <si>
+    <t>Net cash used in investing activities</t>
+  </si>
+  <si>
+    <t>Cash flows used in financing activities</t>
+  </si>
+  <si>
+    <t>Proceeds of borrowings</t>
+  </si>
+  <si>
+    <t>Repayments of borrowing</t>
+  </si>
+  <si>
+    <t>Payments of lease liabilities</t>
+  </si>
+  <si>
+    <t>Dividend paid</t>
+  </si>
+  <si>
+    <t>Net cash flows used in financing activities</t>
+  </si>
+  <si>
+    <t>Net increase in cash held</t>
+  </si>
+  <si>
+    <t>Cash at the beginning of the financial year</t>
   </si>
   <si>
     <t>Cas sh at the end ofthe financial year</t>
+  </si>
+  <si>
+    <t>operating_activities</t>
+  </si>
+  <si>
+    <t>investing_activities</t>
+  </si>
+  <si>
+    <t>financing_activities</t>
   </si>
 </sst>
 </file>
@@ -610,7 +679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -667,10 +736,10 @@
         <v>49181</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -687,10 +756,10 @@
         <v>214941</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -707,10 +776,10 @@
         <v>586257</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -724,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -741,10 +810,10 @@
         <v>850379</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -758,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -778,10 +847,10 @@
         <v>477418</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -798,10 +867,10 @@
         <v>29801</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -815,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -832,10 +901,10 @@
         <v>2454</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -852,10 +921,10 @@
         <v>28748</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -872,10 +941,10 @@
         <v>834</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -889,10 +958,10 @@
         <v>539255</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -906,10 +975,10 @@
         <v>1389634</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -923,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -943,10 +1012,10 @@
         <v>432018</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -960,10 +1029,10 @@
         <v>358</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -980,10 +1049,10 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1000,10 +1069,10 @@
         <v>201159</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1017,10 +1086,10 @@
         <v>21958</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1037,10 +1106,10 @@
         <v>36729</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1054,10 +1123,10 @@
         <v>692232</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1071,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1091,10 +1160,10 @@
         <v>5246</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1111,10 +1180,10 @@
         <v>40189</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1128,10 +1197,10 @@
         <v>45435</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1145,10 +1214,10 @@
         <v>737667</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1162,10 +1231,10 @@
         <v>651967</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1179,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1199,10 +1268,10 @@
         <v>33670</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1216,10 +1285,10 @@
         <v>1040</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1233,10 +1302,10 @@
         <v>500222</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1250,10 +1319,10 @@
         <v>534932</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1267,10 +1336,10 @@
         <v>117035</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1284,10 +1353,681 @@
         <v>651967</v>
       </c>
       <c r="E37" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
         <v>52</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>54859</v>
+      </c>
+      <c r="D40">
+        <v>49181</v>
+      </c>
+      <c r="E40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>191673</v>
+      </c>
+      <c r="D41">
+        <v>214941</v>
+      </c>
+      <c r="E41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>660561</v>
+      </c>
+      <c r="D42">
+        <v>586257</v>
+      </c>
+      <c r="E42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>537</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>907630</v>
+      </c>
+      <c r="D44">
+        <v>850379</v>
+      </c>
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46">
+        <v>489302</v>
+      </c>
+      <c r="D46">
+        <v>477418</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47">
+        <v>35167</v>
+      </c>
+      <c r="D47">
+        <v>29801</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>2359</v>
+      </c>
+      <c r="D49">
+        <v>2454</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50">
+        <v>39659</v>
+      </c>
+      <c r="D50">
+        <v>28748</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51">
+        <v>926</v>
+      </c>
+      <c r="D51">
+        <v>834</v>
+      </c>
+      <c r="E51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52">
+        <v>567413</v>
+      </c>
+      <c r="D52">
+        <v>539255</v>
+      </c>
+      <c r="E52" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>1475042</v>
+      </c>
+      <c r="D53">
+        <v>1389634</v>
+      </c>
+      <c r="E53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55">
+        <v>454893</v>
+      </c>
+      <c r="D55">
+        <v>432018</v>
+      </c>
+      <c r="E55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56">
+        <v>436</v>
+      </c>
+      <c r="D56">
+        <v>358</v>
+      </c>
+      <c r="E56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57">
+        <v>29</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58">
+        <v>167016</v>
+      </c>
+      <c r="D58">
+        <v>201159</v>
+      </c>
+      <c r="E58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>27910</v>
+      </c>
+      <c r="D59">
+        <v>21958</v>
+      </c>
+      <c r="E59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60">
+        <v>42866</v>
+      </c>
+      <c r="D60">
+        <v>36729</v>
+      </c>
+      <c r="E60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61">
+        <v>693150</v>
+      </c>
+      <c r="D61">
+        <v>692232</v>
+      </c>
+      <c r="E61" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63">
+        <v>5904</v>
+      </c>
+      <c r="D63">
+        <v>5246</v>
+      </c>
+      <c r="E63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64">
+        <v>42713</v>
+      </c>
+      <c r="D64">
+        <v>40189</v>
+      </c>
+      <c r="E64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65">
+        <v>48617</v>
+      </c>
+      <c r="D65">
+        <v>45435</v>
+      </c>
+      <c r="E65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66">
+        <v>741767</v>
+      </c>
+      <c r="D66">
+        <v>737667</v>
+      </c>
+      <c r="E66" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67">
+        <v>733275</v>
+      </c>
+      <c r="D67">
+        <v>651967</v>
+      </c>
+      <c r="E67" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>53</v>
+      </c>
+      <c r="F68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>33670</v>
+      </c>
+      <c r="D69">
+        <v>33670</v>
+      </c>
+      <c r="E69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70">
+        <v>-1568</v>
+      </c>
+      <c r="D70">
+        <v>1040</v>
+      </c>
+      <c r="E70" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71">
+        <v>569213</v>
+      </c>
+      <c r="D71">
+        <v>500222</v>
+      </c>
+      <c r="E71" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72">
+        <v>601315</v>
+      </c>
+      <c r="D72">
+        <v>534932</v>
+      </c>
+      <c r="E72" t="s">
+        <v>53</v>
+      </c>
+      <c r="F72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73">
+        <v>131960</v>
+      </c>
+      <c r="D73">
+        <v>117035</v>
+      </c>
+      <c r="E73" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74">
+        <v>733275</v>
+      </c>
+      <c r="D74">
+        <v>651967</v>
+      </c>
+      <c r="E74" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +2037,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1319,7 +2059,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1330,7 +2070,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>1614846</v>
@@ -1341,7 +2081,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>278604</v>
@@ -1352,7 +2092,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>1213</v>
@@ -1363,10 +2103,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>1894663</v>
@@ -1377,7 +2117,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>-1173658</v>
@@ -1388,7 +2128,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>-153548</v>
@@ -1399,7 +2139,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9">
         <v>567457</v>
@@ -1410,7 +2150,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>-100948</v>
@@ -1421,7 +2161,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>-64009</v>
@@ -1432,7 +2172,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <v>3682</v>
@@ -1443,7 +2183,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>-80535</v>
@@ -1454,7 +2194,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>325647</v>
@@ -1465,7 +2205,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
@@ -1487,7 +2227,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>223955</v>
@@ -1498,7 +2238,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1509,7 +2249,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>-2608</v>
@@ -1520,7 +2260,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20">
         <v>221347</v>
@@ -1531,7 +2271,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1542,7 +2282,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>188751</v>
@@ -1567,6 +2307,270 @@
         <v>223955</v>
       </c>
       <c r="D24">
+        <v>158071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>1614846</v>
+      </c>
+      <c r="D27">
+        <v>1321840</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <v>278604</v>
+      </c>
+      <c r="D28">
+        <v>252894</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <v>1213</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30">
+        <v>1894663</v>
+      </c>
+      <c r="D30">
+        <v>1574755</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31">
+        <v>-1173658</v>
+      </c>
+      <c r="D31">
+        <v>-981076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32">
+        <v>-153548</v>
+      </c>
+      <c r="D32">
+        <v>-148520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>567457</v>
+      </c>
+      <c r="D33">
+        <v>445159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>-100948</v>
+      </c>
+      <c r="D34">
+        <v>-90272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35">
+        <v>-64009</v>
+      </c>
+      <c r="D35">
+        <v>-56069</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36">
+        <v>3682</v>
+      </c>
+      <c r="D36">
+        <v>-8676</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37">
+        <v>-80535</v>
+      </c>
+      <c r="D37">
+        <v>-64119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38">
+        <v>325647</v>
+      </c>
+      <c r="D38">
+        <v>226023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>-101692</v>
+      </c>
+      <c r="D39">
+        <v>-67952</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41">
+        <v>223955</v>
+      </c>
+      <c r="D41">
+        <v>158071</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43">
+        <v>-2608</v>
+      </c>
+      <c r="D43">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <v>221347</v>
+      </c>
+      <c r="D44">
+        <v>159253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46">
+        <v>188751</v>
+      </c>
+      <c r="D46">
+        <v>131688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>35204</v>
+      </c>
+      <c r="D47">
+        <v>26383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="C48">
+        <v>223955</v>
+      </c>
+      <c r="D48">
         <v>158071</v>
       </c>
     </row>
@@ -1577,38 +2581,338 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
         <v>2023</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>2022</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
         <v>78</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>2090175</v>
+      </c>
+      <c r="D3">
+        <v>1702445</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>-1787985</v>
+      </c>
+      <c r="D4">
+        <v>-1502882</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>1213</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>-6190</v>
+      </c>
+      <c r="D6">
+        <v>-2163</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <v>-108626</v>
+      </c>
+      <c r="D7">
+        <v>-70010</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>188587</v>
+      </c>
+      <c r="D8">
+        <v>127411</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>-49179</v>
+      </c>
+      <c r="D10">
+        <v>-22787</v>
+      </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12">
+        <v>21601</v>
+      </c>
+      <c r="D12">
+        <v>3562</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-26213</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14">
+        <v>-27578</v>
+      </c>
+      <c r="D14">
+        <v>-45438</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16">
+        <v>406533</v>
+      </c>
+      <c r="D16">
+        <v>481723</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17">
+        <v>-410550</v>
+      </c>
+      <c r="D17">
+        <v>-432777</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18">
+        <v>-11274</v>
+      </c>
+      <c r="D18">
+        <v>-10352</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19">
+        <v>-140039</v>
+      </c>
+      <c r="D19">
+        <v>-95761</v>
+      </c>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <v>-155331</v>
+      </c>
+      <c r="D20">
+        <v>-57167</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>5678</v>
+      </c>
+      <c r="D21">
+        <v>24806</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <v>49181</v>
+      </c>
+      <c r="D22">
+        <v>24375</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23">
         <v>54859</v>
+      </c>
+      <c r="D23">
+        <v>49181</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/LOGS/9c51083f-f1f2-4b35-8fb6-276215c9cdc8/main_page_service_output/main_pages.xlsx
+++ b/LOGS/9c51083f-f1f2-4b35-8fb6-276215c9cdc8/main_page_service_output/main_pages.xlsx
@@ -975,10 +975,10 @@
         <v>1389634</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1217,7 +1217,7 @@
         <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1646,10 +1646,10 @@
         <v>1389634</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1888,7 +1888,7 @@
         <v>53</v>
       </c>
       <c r="F66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1905,7 +1905,7 @@
         <v>53</v>
       </c>
       <c r="F67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:6">
